--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="語彙" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -170,6 +170,133 @@
   </si>
   <si>
     <t>cầu cảng</t>
+  </si>
+  <si>
+    <t>四捨五入第1</t>
+  </si>
+  <si>
+    <t>ししゃごにゅうだいいち</t>
+  </si>
+  <si>
+    <t>Làm tròn số thập phân chữ số đầu tiên</t>
+  </si>
+  <si>
+    <t>情け深い</t>
+  </si>
+  <si>
+    <t>なさけぶかい</t>
+  </si>
+  <si>
+    <t>Giàu lòng trắc ẩn</t>
+  </si>
+  <si>
+    <t>用心深い</t>
+  </si>
+  <si>
+    <t>ようじんぶかい</t>
+  </si>
+  <si>
+    <t>Thận trọng, cảnh giác</t>
+  </si>
+  <si>
+    <t>りりしい</t>
+  </si>
+  <si>
+    <t>若々しい</t>
+  </si>
+  <si>
+    <t>わかわかしいい</t>
+  </si>
+  <si>
+    <t>Trẻ trung</t>
+  </si>
+  <si>
+    <t>Ga lăng, hào hiệp</t>
+  </si>
+  <si>
+    <t>たくましい</t>
+  </si>
+  <si>
+    <t>Vạm vỡ, khỏe mạnh</t>
+  </si>
+  <si>
+    <t>思いやりがある</t>
+  </si>
+  <si>
+    <t>おもいやりがある</t>
+  </si>
+  <si>
+    <t>Hay suy nghĩ
+Biết nghĩ cho người khác</t>
+  </si>
+  <si>
+    <t>思いやる</t>
+  </si>
+  <si>
+    <t>おもいやる</t>
+  </si>
+  <si>
+    <t>Đồng cảm, suy nghĩ cho người khác</t>
+  </si>
+  <si>
+    <t>紛らわしい</t>
+  </si>
+  <si>
+    <t>まぎらわしい</t>
+  </si>
+  <si>
+    <t>Không rõ ràng, gây hiểu lầm</t>
+  </si>
+  <si>
+    <t>コソコソする</t>
+  </si>
+  <si>
+    <t>Lén lút, giấu giếm</t>
+  </si>
+  <si>
+    <t>気品がある</t>
+  </si>
+  <si>
+    <t>きひんがある</t>
+  </si>
+  <si>
+    <t>Có phẩm cách</t>
+  </si>
+  <si>
+    <t>色気がある</t>
+  </si>
+  <si>
+    <t>いろけがある</t>
+  </si>
+  <si>
+    <t>Quyến rũ</t>
+  </si>
+  <si>
+    <t>しとやか</t>
+  </si>
+  <si>
+    <t>Bình tĩnh, điềm tĩnh, nhẹ nhàng, quý phái</t>
+  </si>
+  <si>
+    <t>チャーミング</t>
+  </si>
+  <si>
+    <t>Đẹp duyên dáng, yêu kiều, quyến rũ</t>
+  </si>
+  <si>
+    <t>気まぐれ</t>
+  </si>
+  <si>
+    <t>Hay thay đổi, không kiên định</t>
+  </si>
+  <si>
+    <t>近寄りがたい</t>
+  </si>
+  <si>
+    <t>ちかよりがたい</t>
+  </si>
+  <si>
+    <t>Khó tiếp cận</t>
   </si>
 </sst>
 </file>
@@ -234,9 +361,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,250 +688,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:D2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -297,6 +297,45 @@
   </si>
   <si>
     <t>Khó tiếp cận</t>
+  </si>
+  <si>
+    <t>何らか</t>
+  </si>
+  <si>
+    <t>なにらか</t>
+  </si>
+  <si>
+    <t>Một vài</t>
+  </si>
+  <si>
+    <t>何らかの理由</t>
+  </si>
+  <si>
+    <t>出来高</t>
+  </si>
+  <si>
+    <t>できだか</t>
+  </si>
+  <si>
+    <t>Sản lượng</t>
+  </si>
+  <si>
+    <t>事前</t>
+  </si>
+  <si>
+    <t>じぜん</t>
+  </si>
+  <si>
+    <t>Trước đó</t>
+  </si>
+  <si>
+    <t>送付</t>
+  </si>
+  <si>
+    <t>そうふ</t>
+  </si>
+  <si>
+    <t>Gửi</t>
   </si>
 </sst>
 </file>
@@ -688,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1158,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -1130,7 +1169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -1142,6 +1181,65 @@
       </c>
       <c r="D34" s="6" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="語彙" sheetId="1" r:id="rId1"/>
+    <sheet name="語彙1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙1!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>No</t>
   </si>
@@ -336,6 +336,174 @@
   </si>
   <si>
     <t>Gửi</t>
+  </si>
+  <si>
+    <t>非課税</t>
+  </si>
+  <si>
+    <t>ひかぜい</t>
+  </si>
+  <si>
+    <t>Miễn thuế</t>
+  </si>
+  <si>
+    <t>受入</t>
+  </si>
+  <si>
+    <t>うけいり</t>
+  </si>
+  <si>
+    <t>Tiếp nhận</t>
+  </si>
+  <si>
+    <t>精査</t>
+  </si>
+  <si>
+    <t>せいさ</t>
+  </si>
+  <si>
+    <t>Kiểm tra cẩn thận</t>
+  </si>
+  <si>
+    <t>伝票</t>
+  </si>
+  <si>
+    <t>でんぴょう</t>
+  </si>
+  <si>
+    <t>Hóa đơn</t>
+  </si>
+  <si>
+    <t>預金残高</t>
+  </si>
+  <si>
+    <t>よきんざんだか</t>
+  </si>
+  <si>
+    <t>Số dư tiền gửi</t>
+  </si>
+  <si>
+    <t>マル優</t>
+  </si>
+  <si>
+    <t>まるゆう</t>
+  </si>
+  <si>
+    <t>Chế độ miễn thuế đối với những lợi nhuận (dưới một mức tiền nhất định) của một số đối tượng được cho là khó kiếm thu nhập</t>
+  </si>
+  <si>
+    <t>別段預金</t>
+  </si>
+  <si>
+    <t>べつだんよきん</t>
+  </si>
+  <si>
+    <t>Tiền gửi đặc biệt</t>
+  </si>
+  <si>
+    <t>別段</t>
+  </si>
+  <si>
+    <t>べつだん</t>
+  </si>
+  <si>
+    <t>Đặc biệt</t>
+  </si>
+  <si>
+    <t>コンプライアンス</t>
+  </si>
+  <si>
+    <t>Việc tuân thủ đúng pháp luật, hoặc quy định công ty</t>
+  </si>
+  <si>
+    <t>上席者</t>
+  </si>
+  <si>
+    <t>じょうせきしゃ</t>
+  </si>
+  <si>
+    <t>Người có thâm niên, được ưu tiên</t>
+  </si>
+  <si>
+    <t>見合う</t>
+  </si>
+  <si>
+    <t>みあう</t>
+  </si>
+  <si>
+    <t>Phù hợp</t>
+  </si>
+  <si>
+    <t>突き合わせる</t>
+  </si>
+  <si>
+    <t>つきあわせる</t>
+  </si>
+  <si>
+    <t>So sánh, đối chiếu</t>
+  </si>
+  <si>
+    <t>郵送する</t>
+  </si>
+  <si>
+    <t>ゆうそうする</t>
+  </si>
+  <si>
+    <t>Gửi bằng bưu điện</t>
+  </si>
+  <si>
+    <t>抜粋する</t>
+  </si>
+  <si>
+    <t>ばっすいする</t>
+  </si>
+  <si>
+    <t>Trích ra</t>
+  </si>
+  <si>
+    <t>任意</t>
+  </si>
+  <si>
+    <t>にんい</t>
+  </si>
+  <si>
+    <t>Tùy ý</t>
+  </si>
+  <si>
+    <t>抹消</t>
+  </si>
+  <si>
+    <t>まっしょう</t>
+  </si>
+  <si>
+    <t>Xóa</t>
+  </si>
+  <si>
+    <t>引当</t>
+  </si>
+  <si>
+    <t>ひきあて</t>
+  </si>
+  <si>
+    <t>Đặt cọc</t>
+  </si>
+  <si>
+    <t>当初</t>
+  </si>
+  <si>
+    <t>とうしょ</t>
+  </si>
+  <si>
+    <t>Lúc đầu, ngay từ đầu</t>
+  </si>
+  <si>
+    <t>跨ぐ</t>
+  </si>
+  <si>
+    <t>またぐ</t>
+  </si>
+  <si>
+    <t>Vượt quá, vượt qua</t>
   </si>
 </sst>
 </file>
@@ -400,17 +568,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -727,519 +886,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA6AD8-6E21-5C43-A4B7-BF31036B220A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>No</t>
   </si>
@@ -504,17 +505,51 @@
   </si>
   <si>
     <t>Vượt quá, vượt qua</t>
+  </si>
+  <si>
+    <t>会合</t>
+    <rPh sb="0" eb="2">
+      <t>カイg</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいごう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Họp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PTAの会合に出る</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>介護</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かいご</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chăm sóc</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -522,8 +557,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -568,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -579,12 +621,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -600,7 +639,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -675,6 +714,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -710,6 +766,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,22 +958,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -928,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -942,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -956,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -970,7 +1043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -984,7 +1057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -998,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1010,7 +1083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1024,7 +1097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1038,7 +1111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1052,7 +1125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1066,7 +1139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1080,7 +1153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1094,7 +1167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1108,7 +1181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1122,7 +1195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1136,7 +1209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1150,7 +1223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1164,507 +1237,546 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>161</v>
       </c>
     </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA6AD8-6E21-5C43-A4B7-BF31036B220A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>No</t>
   </si>
@@ -540,16 +539,316 @@
     <t>Chăm sóc</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>無口</t>
+  </si>
+  <si>
+    <t>むくち</t>
+  </si>
+  <si>
+    <t>Ít nói</t>
+  </si>
+  <si>
+    <t>陰気</t>
+  </si>
+  <si>
+    <t>いんき</t>
+  </si>
+  <si>
+    <t>Nặng nề, u ám (Nói đến thời tiết, tính cách, bầu không khí)</t>
+  </si>
+  <si>
+    <t>まめ</t>
+  </si>
+  <si>
+    <t>Siêng năng, cần cù</t>
+  </si>
+  <si>
+    <t>生真面目</t>
+  </si>
+  <si>
+    <t>きまじめ</t>
+  </si>
+  <si>
+    <t>Nghiêm chỉnh, đứng đắn</t>
+  </si>
+  <si>
+    <t>勤勉</t>
+  </si>
+  <si>
+    <t>きんべん</t>
+  </si>
+  <si>
+    <t>Chăm chỉ</t>
+  </si>
+  <si>
+    <t>真心</t>
+  </si>
+  <si>
+    <t>まごころ（をもって）</t>
+  </si>
+  <si>
+    <t>Mang một trái tim chân thành</t>
+  </si>
+  <si>
+    <t>私利私欲</t>
+  </si>
+  <si>
+    <t>しりしよく</t>
+  </si>
+  <si>
+    <t>Ích kỷ, chỉ tư lợi cho bản thân</t>
+  </si>
+  <si>
+    <t>誠実</t>
+  </si>
+  <si>
+    <t>せいじつ</t>
+  </si>
+  <si>
+    <t>Thành thật, chân thật</t>
+  </si>
+  <si>
+    <t>偽り</t>
+  </si>
+  <si>
+    <t>いつわり</t>
+  </si>
+  <si>
+    <t>Dối trá, lừa dối</t>
+  </si>
+  <si>
+    <t>真面</t>
+  </si>
+  <si>
+    <t>まとも</t>
+  </si>
+  <si>
+    <t>Chính diện (đối mặt); trung thực, ngay thẳng</t>
+  </si>
+  <si>
+    <t>大柄</t>
+  </si>
+  <si>
+    <t>おおがら</t>
+  </si>
+  <si>
+    <t>To (Bản chất to hơn bình thường)</t>
+  </si>
+  <si>
+    <t>小柄</t>
+  </si>
+  <si>
+    <t>こがら</t>
+  </si>
+  <si>
+    <t>Nhỏ (Bản chất nhỏ hơn bình thường)</t>
+  </si>
+  <si>
+    <t>活発</t>
+  </si>
+  <si>
+    <t>かっぱつ</t>
+  </si>
+  <si>
+    <t>Hoạt bát</t>
+  </si>
+  <si>
+    <t>有望</t>
+  </si>
+  <si>
+    <t>ゆうぼう</t>
+  </si>
+  <si>
+    <t>Có triển vọng tốt</t>
+  </si>
+  <si>
+    <t>いの一番</t>
+  </si>
+  <si>
+    <t>いのいちばん</t>
+  </si>
+  <si>
+    <t>Đầu tiên</t>
+  </si>
+  <si>
+    <t>現実逃避</t>
+  </si>
+  <si>
+    <t>げんじつとうひ</t>
+  </si>
+  <si>
+    <t>Trốn tránh hiện tại</t>
+  </si>
+  <si>
+    <t>びしょ濡れ</t>
+  </si>
+  <si>
+    <t>びしょぬれ</t>
+  </si>
+  <si>
+    <t>Ướt sũng</t>
+  </si>
+  <si>
+    <t>カエル</t>
+  </si>
+  <si>
+    <t>Con ếch</t>
+  </si>
+  <si>
+    <t>はしゃぐ</t>
+  </si>
+  <si>
+    <t>Nô đùa</t>
+  </si>
+  <si>
+    <t>現行犯</t>
+  </si>
+  <si>
+    <t>げんこうはん</t>
+  </si>
+  <si>
+    <t>Bắt quả tang</t>
+  </si>
+  <si>
+    <t>朝連</t>
+  </si>
+  <si>
+    <t>あされん</t>
+  </si>
+  <si>
+    <t>Tập luyện buổi sáng</t>
+  </si>
+  <si>
+    <t>匂う</t>
+  </si>
+  <si>
+    <t>におう</t>
+  </si>
+  <si>
+    <t>Bốc mùi</t>
+  </si>
+  <si>
+    <t>バレー部</t>
+  </si>
+  <si>
+    <t>ばれーぶ</t>
+  </si>
+  <si>
+    <t>Câu lạc bộ bale</t>
+  </si>
+  <si>
+    <t>重症</t>
+  </si>
+  <si>
+    <t>じゅうしょう</t>
+  </si>
+  <si>
+    <t>Bệnh nặng</t>
+  </si>
+  <si>
+    <t>すがすがしい</t>
+  </si>
+  <si>
+    <t>Tươi tắn</t>
+  </si>
+  <si>
+    <t>粉状</t>
+  </si>
+  <si>
+    <t>ふんじょう</t>
+  </si>
+  <si>
+    <t>Dạng bột</t>
+  </si>
+  <si>
+    <t>サクッと</t>
+  </si>
+  <si>
+    <t>Nhanh chóng</t>
+  </si>
+  <si>
+    <t>疎外感</t>
+  </si>
+  <si>
+    <t>そがいかん</t>
+  </si>
+  <si>
+    <t>Cảm giác xa lánh</t>
+  </si>
+  <si>
+    <t>時間割</t>
+  </si>
+  <si>
+    <t>じかんわり</t>
+  </si>
+  <si>
+    <t>Thời khóa biểu</t>
+  </si>
+  <si>
+    <t>班</t>
+  </si>
+  <si>
+    <t>はん</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
+  </si>
+  <si>
+    <t>呼び捨て</t>
+  </si>
+  <si>
+    <t>よびすて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gọi trống không </t>
+  </si>
+  <si>
+    <t>邪険</t>
+  </si>
+  <si>
+    <t>じゃけん</t>
+  </si>
+  <si>
+    <t>Cay nghiệt</t>
+  </si>
+  <si>
+    <t>坊主</t>
+  </si>
+  <si>
+    <t>ぼうず</t>
+  </si>
+  <si>
+    <t>Sư</t>
+  </si>
+  <si>
+    <t>砂浜</t>
+  </si>
+  <si>
+    <t>すなはま</t>
+  </si>
+  <si>
+    <t>Bãi cát</t>
+  </si>
+  <si>
+    <t>砂</t>
+  </si>
+  <si>
+    <t>すな</t>
+  </si>
+  <si>
+    <t>Cát</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -557,13 +856,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -623,7 +922,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -639,7 +938,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -714,23 +1013,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -766,23 +1048,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -958,19 +1223,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1773,6 +2038,486 @@
       </c>
       <c r="D59" s="2" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙1!$A$2:$D$2</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="295">
   <si>
     <t>No</t>
   </si>
@@ -510,34 +511,34 @@
     <rPh sb="0" eb="2">
       <t>カイg</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>かいごう</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Họp</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>PTAの会合に出る</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>介護</t>
     <rPh sb="0" eb="2">
       <t>カイゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>かいご</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Chăm sóc</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>無口</t>
@@ -838,22 +839,92 @@
   </si>
   <si>
     <t>Cát</t>
+  </si>
+  <si>
+    <t>平社員</t>
+  </si>
+  <si>
+    <t>ひらしゃいｎ</t>
+  </si>
+  <si>
+    <t>Nhân viên bình thường</t>
+  </si>
+  <si>
+    <t>さっと</t>
+  </si>
+  <si>
+    <t>Bất thình lình</t>
+  </si>
+  <si>
+    <t>バラ園</t>
+  </si>
+  <si>
+    <t>ばらえん</t>
+  </si>
+  <si>
+    <t>Vườn hoa hồng</t>
+  </si>
+  <si>
+    <t>手ぬぐい</t>
+  </si>
+  <si>
+    <t>てぬぐい</t>
+  </si>
+  <si>
+    <t>Khăn</t>
+  </si>
+  <si>
+    <t>承諾</t>
+  </si>
+  <si>
+    <t>しょうだく</t>
+  </si>
+  <si>
+    <t>Đồng ý, chấp thuận</t>
+  </si>
+  <si>
+    <t>冷静</t>
+  </si>
+  <si>
+    <t>れいせい</t>
+  </si>
+  <si>
+    <t>Bình tĩnh</t>
+  </si>
+  <si>
+    <t>保健室</t>
+  </si>
+  <si>
+    <t>ほけんしつ</t>
+  </si>
+  <si>
+    <t>Phòng y tế</t>
+  </si>
+  <si>
+    <t>脳震盪</t>
+  </si>
+  <si>
+    <t>のうしんとう</t>
+  </si>
+  <si>
+    <t>Chấn động não</t>
+  </si>
+  <si>
+    <t>お揃い</t>
+  </si>
+  <si>
+    <t>おそろい</t>
+  </si>
+  <si>
+    <t>Giống nhau, đồ đôi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -866,6 +937,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -909,15 +993,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,18 +1309,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E94"/>
+  <dimension ref="A2:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1253,1276 +1339,1433 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>268</v>
       </c>
     </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="語彙2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙1!$A$2:$D$2</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="328">
   <si>
     <t>No</t>
   </si>
@@ -917,6 +917,105 @@
   </si>
   <si>
     <t>Giống nhau, đồ đôi</t>
+  </si>
+  <si>
+    <t>海辺</t>
+  </si>
+  <si>
+    <t>うみべ</t>
+  </si>
+  <si>
+    <t>Bãi biển</t>
+  </si>
+  <si>
+    <t>敬い</t>
+  </si>
+  <si>
+    <t>うやまい</t>
+  </si>
+  <si>
+    <t>Kính trọng, tôn trọng</t>
+  </si>
+  <si>
+    <t>ひざまずく</t>
+  </si>
+  <si>
+    <t>Quỳ gối</t>
+  </si>
+  <si>
+    <t>荷造り</t>
+  </si>
+  <si>
+    <t>にづくり</t>
+  </si>
+  <si>
+    <t>Đóng thùng đồ đạc, hành lý</t>
+  </si>
+  <si>
+    <t>もうおしまい</t>
+  </si>
+  <si>
+    <t>Đã xong</t>
+  </si>
+  <si>
+    <t>Đóng gói, đóng thùng</t>
+  </si>
+  <si>
+    <t>梱包する</t>
+  </si>
+  <si>
+    <t>こんぽうする</t>
+  </si>
+  <si>
+    <t>雨戸</t>
+  </si>
+  <si>
+    <t>あまど</t>
+  </si>
+  <si>
+    <t>Cửa che mưa</t>
+  </si>
+  <si>
+    <t>寄ってたかって</t>
+  </si>
+  <si>
+    <t>よってたかって</t>
+  </si>
+  <si>
+    <t>Xúm vào</t>
+  </si>
+  <si>
+    <t>くす玉</t>
+  </si>
+  <si>
+    <t>くすだま</t>
+  </si>
+  <si>
+    <t>Quả cầu trang trí (Vật hình cầu)</t>
+  </si>
+  <si>
+    <t>感無量</t>
+  </si>
+  <si>
+    <t>かんむりょう</t>
+  </si>
+  <si>
+    <t>Cảm động, cảm xúc dâng trào</t>
+  </si>
+  <si>
+    <t>補充</t>
+  </si>
+  <si>
+    <t>ほじゅう</t>
+  </si>
+  <si>
+    <t>Bổ sung</t>
+  </si>
+  <si>
+    <t>それと</t>
+  </si>
+  <si>
+    <t>Với lại</t>
   </si>
 </sst>
 </file>
@@ -993,11 +1092,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1005,6 +1101,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1311,1408 +1424,1406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E102"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="3">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="3">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="3">
+      <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="3">
+      <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="3">
+      <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="3">
+      <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="3">
+      <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="3">
+      <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="3">
+      <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="3">
+      <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="3">
+      <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="3">
+      <c r="A79" s="5">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="3">
+      <c r="A80" s="5">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="3">
+      <c r="A81" s="5">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="3">
+      <c r="A83" s="5">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="3">
+      <c r="A84" s="5">
         <v>82</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="3">
+      <c r="A85" s="5">
         <v>83</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="3">
+      <c r="A86" s="5">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="3">
+      <c r="A87" s="5">
         <v>85</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="3">
+      <c r="A88" s="5">
         <v>86</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="3">
+      <c r="A89" s="5">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="3">
+      <c r="A90" s="5">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="3">
+      <c r="A91" s="5">
         <v>89</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="3">
+      <c r="A92" s="5">
         <v>90</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="3">
+      <c r="A93" s="5">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="3">
+      <c r="A94" s="5">
         <v>92</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="3">
+      <c r="A95" s="5">
         <v>93</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="3">
+      <c r="A96" s="5">
         <v>94</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="3">
+      <c r="A97" s="5">
         <v>95</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="3">
+      <c r="A98" s="5">
         <v>96</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="3">
+      <c r="A99" s="5">
         <v>97</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="3">
+      <c r="A100" s="5">
         <v>98</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="3">
+      <c r="A101" s="5">
         <v>99</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="3">
+      <c r="A102" s="5">
         <v>100</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2725,44 +2836,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="342">
   <si>
     <t>No</t>
   </si>
@@ -1016,6 +1016,48 @@
   </si>
   <si>
     <t>Với lại</t>
+  </si>
+  <si>
+    <t>瀬戸際</t>
+  </si>
+  <si>
+    <t>せとぎわ</t>
+  </si>
+  <si>
+    <t>Bờ vực</t>
+  </si>
+  <si>
+    <t>必ずや</t>
+  </si>
+  <si>
+    <t>かならずや</t>
+  </si>
+  <si>
+    <t>Nhất định</t>
+  </si>
+  <si>
+    <t>あったまきた</t>
+  </si>
+  <si>
+    <t>Tức giận</t>
+  </si>
+  <si>
+    <t>なりたて</t>
+  </si>
+  <si>
+    <t>Mới bắt đầu</t>
+  </si>
+  <si>
+    <t>たまったもんじゃない</t>
+  </si>
+  <si>
+    <t>Không chịu được</t>
+  </si>
+  <si>
+    <t>もうこうなったら</t>
+  </si>
+  <si>
+    <t>Nếu cứ đà này</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1088,11 +1130,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,6 +1171,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2836,15 +2890,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3038,6 +3092,81 @@
         <v>327</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="345">
   <si>
     <t>No</t>
   </si>
@@ -1058,6 +1058,15 @@
   </si>
   <si>
     <t>Nếu cứ đà này</t>
+  </si>
+  <si>
+    <t>独りぼっち</t>
+  </si>
+  <si>
+    <t>ひとりぼっち</t>
+  </si>
+  <si>
+    <t>Một mình, cô độc</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -2890,9 +2899,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3167,6 +3176,25 @@
         <v>341</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
     <sheet name="語彙2" sheetId="2" r:id="rId2"/>
+    <sheet name="練習" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙1!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="545">
   <si>
     <t>No</t>
   </si>
@@ -844,9 +845,6 @@
     <t>平社員</t>
   </si>
   <si>
-    <t>ひらしゃいｎ</t>
-  </si>
-  <si>
     <t>Nhân viên bình thường</t>
   </si>
   <si>
@@ -1067,13 +1065,628 @@
   </si>
   <si>
     <t>Một mình, cô độc</t>
+  </si>
+  <si>
+    <t>ひらしゃいん</t>
+  </si>
+  <si>
+    <t>純粋</t>
+  </si>
+  <si>
+    <t>じゅんすい</t>
+  </si>
+  <si>
+    <t>Trong sáng, thuần khiết</t>
+  </si>
+  <si>
+    <t>無邪気</t>
+  </si>
+  <si>
+    <t>むじゃき</t>
+  </si>
+  <si>
+    <t>温和</t>
+  </si>
+  <si>
+    <t>おんわ</t>
+  </si>
+  <si>
+    <t>Ôn hòa, dễ chịu</t>
+  </si>
+  <si>
+    <t>気さく</t>
+  </si>
+  <si>
+    <t>きさく</t>
+  </si>
+  <si>
+    <t>Thân thiện, hòa đồng</t>
+  </si>
+  <si>
+    <t>おおらか</t>
+  </si>
+  <si>
+    <t>Rộng lượng, không chấp vặt</t>
+  </si>
+  <si>
+    <t>素朴</t>
+  </si>
+  <si>
+    <t>そぼく</t>
+  </si>
+  <si>
+    <t>Đơn giản</t>
+  </si>
+  <si>
+    <t>デリケート</t>
+  </si>
+  <si>
+    <t>Tinh tế</t>
+  </si>
+  <si>
+    <t>物好き</t>
+  </si>
+  <si>
+    <t>ものずき</t>
+  </si>
+  <si>
+    <t>Tò mò, lập dị</t>
+  </si>
+  <si>
+    <t>孤独</t>
+  </si>
+  <si>
+    <t>こどく</t>
+  </si>
+  <si>
+    <t>Cô độc</t>
+  </si>
+  <si>
+    <t>臆病</t>
+  </si>
+  <si>
+    <t>おくびょう</t>
+  </si>
+  <si>
+    <t>Nhút nhát, bẽn lẽn</t>
+  </si>
+  <si>
+    <t>なれなれしい</t>
+  </si>
+  <si>
+    <t>Thân thuộc, quen thuộc</t>
+  </si>
+  <si>
+    <t>いやらしい</t>
+  </si>
+  <si>
+    <t>Thô lỗ, bậy bạ, bẩn thỉu</t>
+  </si>
+  <si>
+    <t>卑しい</t>
+  </si>
+  <si>
+    <t>いやしい</t>
+  </si>
+  <si>
+    <t>Thô bỉ, đê tiện</t>
+  </si>
+  <si>
+    <t>しぶとい</t>
+  </si>
+  <si>
+    <t>Ngoan cố, ngoan cường, kiên cường</t>
+  </si>
+  <si>
+    <t>荒っぽい</t>
+  </si>
+  <si>
+    <t>あらっぽい</t>
+  </si>
+  <si>
+    <t>Thô lỗ, mạnh bạo, cục cằn</t>
+  </si>
+  <si>
+    <t>金遣いが荒い</t>
+  </si>
+  <si>
+    <t>かねづかいがあらい</t>
+  </si>
+  <si>
+    <t>Tiêu hoang</t>
+  </si>
+  <si>
+    <t>おせっかい</t>
+  </si>
+  <si>
+    <t>Lo chuyện bao đồng, thừa thãi</t>
+  </si>
+  <si>
+    <t>Cẩu thả, không cẩn thận, nhanh nhẩu đoảng</t>
+  </si>
+  <si>
+    <t>おっちょこちょい(な)</t>
+  </si>
+  <si>
+    <t>でしゃばり</t>
+  </si>
+  <si>
+    <t>Tọc mạch, chõ mũi vào việc người khác</t>
+  </si>
+  <si>
+    <t>きざ</t>
+  </si>
+  <si>
+    <t>Phô trương, ngạo mạn</t>
+  </si>
+  <si>
+    <t>ルーズ</t>
+  </si>
+  <si>
+    <t>無礼</t>
+  </si>
+  <si>
+    <t>ぶれい</t>
+  </si>
+  <si>
+    <t>Thô lỗ, vô lễ</t>
+  </si>
+  <si>
+    <t>Suy nghĩ đơn giản, ngây thơ</t>
+  </si>
+  <si>
+    <t>Lôi thôi (trong ăn mặc), cao su (thời gian)</t>
+  </si>
+  <si>
+    <t>悪い</t>
+  </si>
+  <si>
+    <t>荒い</t>
+  </si>
+  <si>
+    <t>彼はちょっと時間にルーズなところがある。</t>
+  </si>
+  <si>
+    <r>
+      <t>私の夫はとても金遣いが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>荒い。</t>
+    </r>
+  </si>
+  <si>
+    <t>まめな</t>
+  </si>
+  <si>
+    <t>ルーズな</t>
+  </si>
+  <si>
+    <t>彼女は大スターなのに、とても気さくな人です。</t>
+  </si>
+  <si>
+    <t>気さくな</t>
+  </si>
+  <si>
+    <t>豪華で黄色がある輝きの宝石。</t>
+  </si>
+  <si>
+    <t>気品のある</t>
+  </si>
+  <si>
+    <t>あまりお金に卑しい人は嫌われます</t>
+  </si>
+  <si>
+    <t>でしゃばりな</t>
+  </si>
+  <si>
+    <t>あの店員は誰にでも愛想がいい。</t>
+  </si>
+  <si>
+    <t>愛想がいい</t>
+  </si>
+  <si>
+    <t>センスがいい</t>
+  </si>
+  <si>
+    <t>彼女は将来有望な新人女優です。</t>
+  </si>
+  <si>
+    <t>チャーミングな</t>
+  </si>
+  <si>
+    <t>しとやかな</t>
+  </si>
+  <si>
+    <t>活発な</t>
+  </si>
+  <si>
+    <t>有望な</t>
+  </si>
+  <si>
+    <t>彼はたくましい肉体をしている</t>
+  </si>
+  <si>
+    <t>いさぎよい</t>
+  </si>
+  <si>
+    <t>おおらかな</t>
+  </si>
+  <si>
+    <t>情けない</t>
+  </si>
+  <si>
+    <t>なさけない</t>
+  </si>
+  <si>
+    <t>Đáng xấu hổ</t>
+  </si>
+  <si>
+    <t>また負けてしまって情けない</t>
+  </si>
+  <si>
+    <t>望ましい</t>
+  </si>
+  <si>
+    <t>のぞましい</t>
+  </si>
+  <si>
+    <t>Kỳ vọng, mong muốn</t>
+  </si>
+  <si>
+    <t>運動は毎日続けるのが望ましい</t>
+  </si>
+  <si>
+    <t>好ましい</t>
+  </si>
+  <si>
+    <t>このましい</t>
+  </si>
+  <si>
+    <t>Dễ thương, đáng yêu, đáng mến, được đánh giá cao</t>
+  </si>
+  <si>
+    <t>好ましい服装</t>
+  </si>
+  <si>
+    <t>申し分（が）ない</t>
+  </si>
+  <si>
+    <t>もうしぶん（が）ない</t>
+  </si>
+  <si>
+    <t>Không có lỗi nào, không có lời phê bình nào</t>
+  </si>
+  <si>
+    <t>申し分（が）ない作品</t>
+  </si>
+  <si>
+    <t>快く</t>
+  </si>
+  <si>
+    <t>こころよく</t>
+  </si>
+  <si>
+    <t>Tự nguyện, vui vẻ, thoải mái</t>
+  </si>
+  <si>
+    <t>申し出を快く承諾する</t>
+  </si>
+  <si>
+    <t>Tươi tắn, khỏe khoắn</t>
+  </si>
+  <si>
+    <t>すがすがしい朝</t>
+  </si>
+  <si>
+    <t>爽快（な）</t>
+  </si>
+  <si>
+    <t>気分爽快</t>
+  </si>
+  <si>
+    <t>そうかい</t>
+  </si>
+  <si>
+    <t>Hăng hái, tràn đầy sinh lực</t>
+  </si>
+  <si>
+    <t>待ち遠しい</t>
+  </si>
+  <si>
+    <t>まちどおしい</t>
+  </si>
+  <si>
+    <t>Mong ngóng, mong đợi, nóng lòng</t>
+  </si>
+  <si>
+    <t>春の訪れが待ち遠しい</t>
+  </si>
+  <si>
+    <t>心強い</t>
+  </si>
+  <si>
+    <t>こころづよい</t>
+  </si>
+  <si>
+    <t>An tâm, vững tâm, cảm giác an toàn</t>
+  </si>
+  <si>
+    <t>あなたと一緒だと心強い</t>
+  </si>
+  <si>
+    <t>空しい</t>
+  </si>
+  <si>
+    <t>むなしい</t>
+  </si>
+  <si>
+    <t>Trống rỗng</t>
+  </si>
+  <si>
+    <t>喜びが何もない空しい生活</t>
+  </si>
+  <si>
+    <t>心細い</t>
+  </si>
+  <si>
+    <t>こころぼそい</t>
+  </si>
+  <si>
+    <t>Cô đơn</t>
+  </si>
+  <si>
+    <t>一人では心細い</t>
+  </si>
+  <si>
+    <t>切ない</t>
+  </si>
+  <si>
+    <t>せつない</t>
+  </si>
+  <si>
+    <t>Đau khổ, buồn, đau đớn</t>
+  </si>
+  <si>
+    <t>彼と離れるのはとても切ない</t>
+  </si>
+  <si>
+    <t>物足りない</t>
+  </si>
+  <si>
+    <t>ものたりない</t>
+  </si>
+  <si>
+    <t>Không hài lòng, không thỏa mãn</t>
+  </si>
+  <si>
+    <t>食事の量が物足りない</t>
+  </si>
+  <si>
+    <t>煩わしい</t>
+  </si>
+  <si>
+    <t>わずらわしい</t>
+  </si>
+  <si>
+    <t>Phiền toái, phiền phức</t>
+  </si>
+  <si>
+    <t>隣人との付き合いが煩わしい</t>
+  </si>
+  <si>
+    <t>うっとうしい</t>
+  </si>
+  <si>
+    <t>U ám, ảm đạm, tăm tối</t>
+  </si>
+  <si>
+    <t>うっとうしい天気</t>
+  </si>
+  <si>
+    <t>うざい</t>
+  </si>
+  <si>
+    <t>= 煩わしい、うっとうしい</t>
+  </si>
+  <si>
+    <t>ばかばかしい</t>
+  </si>
+  <si>
+    <t>Nực cười, ngớ ngẩn</t>
+  </si>
+  <si>
+    <t>ばかばかしい話</t>
+  </si>
+  <si>
+    <t>痛ましい</t>
+  </si>
+  <si>
+    <t>いたましい</t>
+  </si>
+  <si>
+    <t>Bi thảm, đau thương, đáng tiếc</t>
+  </si>
+  <si>
+    <t>痛ましい事故現場</t>
+  </si>
+  <si>
+    <t>きまり（が）悪い</t>
+  </si>
+  <si>
+    <t>きまり（が）わるい</t>
+  </si>
+  <si>
+    <t>Xấu hổ, ngượng ngùng</t>
+  </si>
+  <si>
+    <t>会議に遅れてきまりが悪かった</t>
+  </si>
+  <si>
+    <t>あさましい</t>
+  </si>
+  <si>
+    <t>根性</t>
+  </si>
+  <si>
+    <t>こんじょう</t>
+  </si>
+  <si>
+    <t>Bản tính, bản chất</t>
+  </si>
+  <si>
+    <t>Bẩn tính, xấu tính</t>
+  </si>
+  <si>
+    <t>彼は根性があさましい</t>
+  </si>
+  <si>
+    <t>おっかない</t>
+  </si>
+  <si>
+    <t>この辺りは夜になるとおっかない</t>
+  </si>
+  <si>
+    <t>Đáng sợ, nguy hiểm</t>
+  </si>
+  <si>
+    <t>ふさわしい</t>
+  </si>
+  <si>
+    <t>かれはリーダーとしてふさわしい</t>
+  </si>
+  <si>
+    <t>見苦しい</t>
+  </si>
+  <si>
+    <t>みぐるしい</t>
+  </si>
+  <si>
+    <t>Khó coi</t>
+  </si>
+  <si>
+    <t>見苦しい態度</t>
+  </si>
+  <si>
+    <t>心苦しい</t>
+  </si>
+  <si>
+    <t>こころぐるしい</t>
+  </si>
+  <si>
+    <t>こんなことを頼むのは心苦しい</t>
+  </si>
+  <si>
+    <t>Cảm thấy có lỗi</t>
+  </si>
+  <si>
+    <t>焦る</t>
+  </si>
+  <si>
+    <t>あせる</t>
+  </si>
+  <si>
+    <t>試験で時間がなくて焦った</t>
+  </si>
+  <si>
+    <t>Vội, hấp tấp</t>
+  </si>
+  <si>
+    <t>あきれる</t>
+  </si>
+  <si>
+    <t>あまりに高い値段にあきれた</t>
+  </si>
+  <si>
+    <t>Shock, ngạc nhiên</t>
+  </si>
+  <si>
+    <t>気に障る</t>
+  </si>
+  <si>
+    <t>きにさわる</t>
+  </si>
+  <si>
+    <t>人の気に障るようなことを言ってはいけません</t>
+  </si>
+  <si>
+    <t>しゃくに障る</t>
+  </si>
+  <si>
+    <t>かんに障る</t>
+  </si>
+  <si>
+    <t>しゃくにさわる</t>
+  </si>
+  <si>
+    <t>かんいさわる</t>
+  </si>
+  <si>
+    <t>Gây tổn thương, khó chịu, tức giận</t>
+  </si>
+  <si>
+    <t>彼の態度がしゃくに障った</t>
+  </si>
+  <si>
+    <t>彼の態度がかんに障った</t>
+  </si>
+  <si>
+    <t>気兼ねする</t>
+  </si>
+  <si>
+    <t>きがねする</t>
+  </si>
+  <si>
+    <t>ホームステイの家族に気兼ねする</t>
+  </si>
+  <si>
+    <t>Gây khó chịu</t>
+  </si>
+  <si>
+    <t>Không tự nhiên</t>
+  </si>
+  <si>
+    <t>すねる</t>
+  </si>
+  <si>
+    <t>子供がすねている</t>
+  </si>
+  <si>
+    <t>Hờn dỗi</t>
+  </si>
+  <si>
+    <t>むかつく</t>
+  </si>
+  <si>
+    <t>船に酔って、胸がむかつく</t>
+  </si>
+  <si>
+    <t>Cảm giác buồn nôn, tức giận</t>
+  </si>
+  <si>
+    <t>恥をかく</t>
+  </si>
+  <si>
+    <t>はじをかく</t>
+  </si>
+  <si>
+    <t>Cảm thấy xấu hổ</t>
+  </si>
+  <si>
+    <t>みんなの前で恥をかいた</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,8 +1714,36 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,8 +1756,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1139,22 +1786,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,9 +1814,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,1409 +2137,1411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E102"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>138</v>
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>141</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>144</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>147</v>
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>150</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>153</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>156</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>159</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>162</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>166</v>
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>169</v>
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D62" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>180</v>
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>183</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>186</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>192</v>
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>195</v>
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>198</v>
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>201</v>
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>207</v>
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>213</v>
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>219</v>
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="5">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>223</v>
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>226</v>
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>229</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>232</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="5">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="5">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="D84" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="5">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D86" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="5">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>245</v>
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="5">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>248</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>251</v>
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>254</v>
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>257</v>
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>260</v>
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="5">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>263</v>
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="5">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>266</v>
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="5">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>270</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="5">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="D96" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="5">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>274</v>
+        <v>96</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="5">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>277</v>
+        <v>97</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>280</v>
+        <v>98</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>283</v>
+        <v>99</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="5">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>286</v>
+        <v>100</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="5">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2899,19 +3553,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2924,275 +3581,1324 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
         <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="20" customFormat="1">
+      <c r="A1" s="19"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
-    <sheet name="語彙2" sheetId="2" r:id="rId2"/>
-    <sheet name="練習" sheetId="3" r:id="rId3"/>
+    <sheet name="練習1" sheetId="3" r:id="rId2"/>
+    <sheet name="語彙2" sheetId="2" r:id="rId3"/>
+    <sheet name="練習2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙1!$A$1:$D$1</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="558">
   <si>
     <t>No</t>
   </si>
@@ -1349,9 +1350,6 @@
     <t>このましい</t>
   </si>
   <si>
-    <t>Dễ thương, đáng yêu, đáng mến, được đánh giá cao</t>
-  </si>
-  <si>
     <t>好ましい服装</t>
   </si>
   <si>
@@ -1583,9 +1581,6 @@
     <t>こんなことを頼むのは心苦しい</t>
   </si>
   <si>
-    <t>Cảm thấy có lỗi</t>
-  </si>
-  <si>
     <t>焦る</t>
   </si>
   <si>
@@ -1680,6 +1675,51 @@
   </si>
   <si>
     <t>みんなの前で恥をかいた</t>
+  </si>
+  <si>
+    <t>Dễ thương, đáng yêu, đáng mến, được yêu thích</t>
+  </si>
+  <si>
+    <t>Cảm thấy có lỗi, khổ tâm</t>
+  </si>
+  <si>
+    <t>電車に乗り遅れそうになりあせった。</t>
+  </si>
+  <si>
+    <t>あせった</t>
+  </si>
+  <si>
+    <t>気に障った</t>
+  </si>
+  <si>
+    <t>山田先生は怒るととてもおっかないよ。</t>
+  </si>
+  <si>
+    <t>旅行に行く日がとても待ち遠しい</t>
+  </si>
+  <si>
+    <t>快い</t>
+  </si>
+  <si>
+    <t>近所に気兼ねして楽器の練習ができない</t>
+  </si>
+  <si>
+    <t>むかついて</t>
+  </si>
+  <si>
+    <t>気兼ねして</t>
+  </si>
+  <si>
+    <t>梅雨時は雨ばかりでうっとうしい。</t>
+  </si>
+  <si>
+    <t>こんな簡単な問題を間違えてしまい、とても情けない</t>
+  </si>
+  <si>
+    <t>このパソコンはわずらわしい敗戦の必要がありません。</t>
+  </si>
+  <si>
+    <t>彼こそ大統領にふさわしい人物です</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1753,12 +1793,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,11 +1862,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3553,1200 +3586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="24.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="8">
-        <v>57</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="8">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8">
-        <v>65</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="8">
-        <v>69</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>544</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4758,150 +3601,1497 @@
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1">
-      <c r="A1" s="19"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>404</v>
+      <c r="C2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="C3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>402</v>
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>403</v>
+      <c r="C4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="C5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>406</v>
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>407</v>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>408</v>
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>409</v>
+      <c r="C8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>81</v>
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>411</v>
+      <c r="C10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>412</v>
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>413</v>
+      <c r="C12" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="D13" t="s">
-        <v>415</v>
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>416</v>
+      <c r="C14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" t="s">
-        <v>417</v>
-      </c>
-      <c r="D15" t="s">
-        <v>418</v>
-      </c>
-      <c r="E15" t="s">
-        <v>419</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>420</v>
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E16" t="s">
         <v>422</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F16" t="s">
         <v>423</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="24.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="20">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="F16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="586">
   <si>
     <t>No</t>
   </si>
@@ -1720,6 +1720,90 @@
   </si>
   <si>
     <t>彼こそ大統領にふさわしい人物です</t>
+  </si>
+  <si>
+    <t>何が何でも</t>
+  </si>
+  <si>
+    <t>ないがなんでも</t>
+  </si>
+  <si>
+    <t>Bằng mọi cách</t>
+  </si>
+  <si>
+    <t>うつむく</t>
+  </si>
+  <si>
+    <t>Cúi gằm mặt</t>
+  </si>
+  <si>
+    <t>うなずく</t>
+  </si>
+  <si>
+    <t>Gật đầu tán thành</t>
+  </si>
+  <si>
+    <t>瞬き（を）する</t>
+  </si>
+  <si>
+    <t>まばたきをする</t>
+  </si>
+  <si>
+    <t>Nháy mắt</t>
+  </si>
+  <si>
+    <t>目をつぶる</t>
+  </si>
+  <si>
+    <t>めをつぶる</t>
+  </si>
+  <si>
+    <t>Nhắm mắt</t>
+  </si>
+  <si>
+    <t>一言つぶやく</t>
+  </si>
+  <si>
+    <t>ひとことつぶやく</t>
+  </si>
+  <si>
+    <t>Lẩm bẩm nói một mình</t>
+  </si>
+  <si>
+    <t>ささやく</t>
+  </si>
+  <si>
+    <t>Nói thầm</t>
+  </si>
+  <si>
+    <t>歌を口ずさむ</t>
+  </si>
+  <si>
+    <t>うたをくちずさむ</t>
+  </si>
+  <si>
+    <t>Ngâm nga, hát thầm</t>
+  </si>
+  <si>
+    <t>煙にむせる</t>
+  </si>
+  <si>
+    <t>けむりにむせる</t>
+  </si>
+  <si>
+    <t>Ngạt khói</t>
+  </si>
+  <si>
+    <t>ほっぺたをつねる</t>
+  </si>
+  <si>
+    <t>Véo má</t>
+  </si>
+  <si>
+    <t>ほっぺた</t>
+  </si>
+  <si>
+    <t>Cái má</t>
   </si>
 </sst>
 </file>
@@ -3748,10 +3832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4930,6 +5014,150 @@
         <v>542</v>
       </c>
     </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4940,7 +5168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="597">
   <si>
     <t>No</t>
   </si>
@@ -1725,9 +1725,6 @@
     <t>何が何でも</t>
   </si>
   <si>
-    <t>ないがなんでも</t>
-  </si>
-  <si>
     <t>Bằng mọi cách</t>
   </si>
   <si>
@@ -1804,6 +1801,43 @@
   </si>
   <si>
     <t>Cái má</t>
+  </si>
+  <si>
+    <t>なにがなんでも</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>くさ</t>
+  </si>
+  <si>
+    <t>Cỏ</t>
+  </si>
+  <si>
+    <t>むしる</t>
+  </si>
+  <si>
+    <t>Nhổ</t>
+  </si>
+  <si>
+    <t>めくる</t>
+  </si>
+  <si>
+    <t>Lật (trang lịch)</t>
+  </si>
+  <si>
+    <t>カレンダーをめくる</t>
+  </si>
+  <si>
+    <t>つまむ</t>
+  </si>
+  <si>
+    <t>Kẹp, nhúm (muối)</t>
+  </si>
+  <si>
+    <t>塩をつまむ
+鼻をつまむ</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,26 +1963,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2263,7 +2324,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="1"/>
@@ -2287,7 +2348,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2301,7 +2362,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2315,7 +2376,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2329,7 +2390,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2343,7 +2404,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2357,7 +2418,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2371,7 +2432,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2"/>
@@ -2383,7 +2444,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2397,7 +2458,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2411,7 +2472,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2425,7 +2486,7 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2439,7 +2500,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2453,7 +2514,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2467,7 +2528,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2481,7 +2542,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2495,7 +2556,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2509,7 +2570,7 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2523,7 +2584,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2537,7 +2598,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2551,7 +2612,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="2"/>
@@ -2563,7 +2624,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2577,7 +2638,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2"/>
@@ -2589,7 +2650,7 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2603,7 +2664,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2617,7 +2678,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2631,7 +2692,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="2"/>
@@ -2643,7 +2704,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2657,7 +2718,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2671,7 +2732,7 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="2"/>
@@ -2683,7 +2744,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="2"/>
@@ -2695,7 +2756,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C32" s="2"/>
@@ -2707,7 +2768,7 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2721,7 +2782,7 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2738,7 +2799,7 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2752,7 +2813,7 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2766,7 +2827,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2780,7 +2841,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2794,7 +2855,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2808,7 +2869,7 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2822,7 +2883,7 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2836,7 +2897,7 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2850,7 +2911,7 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2864,7 +2925,7 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2878,7 +2939,7 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2892,7 +2953,7 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="2"/>
@@ -2904,7 +2965,7 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2918,7 +2979,7 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2932,7 +2993,7 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2946,7 +3007,7 @@
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2960,7 +3021,7 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2974,7 +3035,7 @@
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2988,7 +3049,7 @@
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3002,7 +3063,7 @@
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3016,7 +3077,7 @@
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3030,7 +3091,7 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3044,7 +3105,7 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3061,7 +3122,7 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3075,7 +3136,7 @@
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3089,7 +3150,7 @@
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3103,7 +3164,7 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C61" s="2"/>
@@ -3115,7 +3176,7 @@
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3129,7 +3190,7 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3143,7 +3204,7 @@
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3157,7 +3218,7 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3171,7 +3232,7 @@
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3185,7 +3246,7 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3199,7 +3260,7 @@
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3213,7 +3274,7 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3227,7 +3288,7 @@
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3241,7 +3302,7 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3255,7 +3316,7 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3269,7 +3330,7 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3283,7 +3344,7 @@
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3297,7 +3358,7 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3311,7 +3372,7 @@
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C76" s="2"/>
@@ -3323,7 +3384,7 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C77" s="2"/>
@@ -3335,7 +3396,7 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3349,7 +3410,7 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3363,7 +3424,7 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3377,7 +3438,7 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3391,7 +3452,7 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3405,7 +3466,7 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C83" s="2"/>
@@ -3417,7 +3478,7 @@
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3431,7 +3492,7 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C85" s="2"/>
@@ -3443,7 +3504,7 @@
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3457,7 +3518,7 @@
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3471,7 +3532,7 @@
       <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3485,7 +3546,7 @@
       <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3499,7 +3560,7 @@
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3513,7 +3574,7 @@
       <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3527,7 +3588,7 @@
       <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>263</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3541,7 +3602,7 @@
       <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3555,7 +3616,7 @@
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3569,7 +3630,7 @@
       <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C95" s="2"/>
@@ -3581,7 +3642,7 @@
       <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3595,7 +3656,7 @@
       <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3609,7 +3670,7 @@
       <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3623,7 +3684,7 @@
       <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3637,7 +3698,7 @@
       <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3651,7 +3712,7 @@
       <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>288</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3697,7 +3758,7 @@
       <c r="C2" t="s">
         <v>401</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3713,7 +3774,7 @@
       <c r="C4" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3729,7 +3790,7 @@
       <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3745,7 +3806,7 @@
       <c r="C8" t="s">
         <v>410</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3761,7 +3822,7 @@
       <c r="C10" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3774,7 +3835,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>414</v>
       </c>
       <c r="D12" t="s">
@@ -3799,7 +3860,7 @@
       <c r="E14" t="s">
         <v>419</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="12" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3815,7 +3876,7 @@
       <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="s">
@@ -3832,19 +3893,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="E84" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="24.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3860,1303 +3921,1381 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>292</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="8">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="8">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="8">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="8">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="8">
+      <c r="A42" s="19">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="8">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="8">
+      <c r="A44" s="19">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="8">
+      <c r="A45" s="19">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="18" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="8">
+      <c r="A46" s="19">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="18" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="8">
+      <c r="A47" s="19">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="18" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="8">
+      <c r="A48" s="19">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="18" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="8">
+      <c r="A49" s="19">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="16" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="18" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="8">
+      <c r="A50" s="19">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="18" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="8">
+      <c r="A51" s="19">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="18" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="8">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="18" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="8">
+      <c r="A53" s="19">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="18" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="8">
+      <c r="A54" s="19">
         <v>53</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="18" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="8">
+      <c r="A55" s="19">
         <v>54</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="18" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="8">
+      <c r="A56" s="19">
         <v>55</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="18" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="8">
+      <c r="A57" s="19">
         <v>56</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="18" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="8">
+      <c r="A58" s="19">
         <v>57</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="18" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="8">
+      <c r="A59" s="19">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="11"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="8">
+      <c r="A60" s="19">
         <v>59</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="16" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="18" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="8">
+      <c r="A61" s="19">
         <v>60</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="18" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="8">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="18" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="8">
+      <c r="A63" s="19">
         <v>62</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="16" t="s">
+      <c r="C63" s="20"/>
+      <c r="D63" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="8">
+      <c r="A64" s="19">
         <v>63</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="8">
+      <c r="A65" s="19">
         <v>64</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="16" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="18" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="8">
+      <c r="A66" s="19">
         <v>65</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="16" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="18" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="8">
+      <c r="A67" s="19">
         <v>66</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="18" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="8">
+      <c r="A68" s="19">
         <v>67</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="18" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="8">
+      <c r="A69" s="19">
         <v>68</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="18" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="8">
+      <c r="A70" s="19">
         <v>69</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="16" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="18" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="8">
+      <c r="A71" s="19">
         <v>70</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="18" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="8">
+      <c r="A72" s="19">
         <v>71</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="18" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="8">
+      <c r="A73" s="19">
         <v>72</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="18" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="8">
+      <c r="A74" s="19">
         <v>73</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="18" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="8">
+      <c r="A75" s="19">
         <v>74</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="16" t="s">
+      <c r="C75" s="20"/>
+      <c r="D75" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="18" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="8">
+      <c r="A76" s="19">
         <v>75</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="16" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="18" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="8">
+      <c r="A77" s="19">
         <v>76</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="6">
+      <c r="A78" s="13">
         <v>77</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="6">
-        <v>78</v>
-      </c>
-      <c r="B79" s="15" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="25"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="6">
-        <v>79</v>
-      </c>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="14"/>
+      <c r="D80" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="25"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6">
-        <v>80</v>
-      </c>
-      <c r="B81" s="15" t="s">
+      <c r="C81" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="D81" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="25"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6">
-        <v>81</v>
-      </c>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="D82" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="13">
+        <v>82</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6">
-        <v>82</v>
-      </c>
-      <c r="B83" s="15" t="s">
+      <c r="C83" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="D83" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="25"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="13">
+        <v>83</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="6">
-        <v>83</v>
-      </c>
-      <c r="B84" s="15" t="s">
+      <c r="C84" s="14"/>
+      <c r="D84" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="25"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="13">
+        <v>84</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="6">
-        <v>84</v>
-      </c>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="D85" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="25"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="13">
+        <v>85</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="6">
-        <v>85</v>
-      </c>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="D86" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="13">
+        <v>86</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="6">
-        <v>86</v>
-      </c>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="14"/>
+      <c r="D87" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="25"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="13">
+        <v>87</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="6">
-        <v>87</v>
-      </c>
-      <c r="B88" s="15" t="s">
+      <c r="C88" s="14"/>
+      <c r="D88" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="6">
+      <c r="E88" s="25"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="13">
         <v>88</v>
       </c>
+      <c r="B89" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="E89" s="25"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="13">
+        <v>89</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="13">
+        <v>90</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="17" customFormat="1" ht="27">
+      <c r="A92" s="13">
+        <v>91</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="13">
+        <v>92</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5172,14 +5311,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -5187,7 +5326,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>546</v>
       </c>
       <c r="D2" t="s">
@@ -5195,7 +5334,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -5206,12 +5345,12 @@
       <c r="C4" t="s">
         <v>521</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5222,12 +5361,12 @@
       <c r="C6" t="s">
         <v>550</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -5238,12 +5377,12 @@
       <c r="C8" t="s">
         <v>552</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -5251,7 +5390,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>477</v>
       </c>
       <c r="D10" t="s">
@@ -5259,7 +5398,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -5267,7 +5406,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D12" t="s">
@@ -5275,7 +5414,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -5283,7 +5422,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>474</v>
       </c>
       <c r="D14" t="s">
@@ -5297,7 +5436,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20">
+      <c r="A15" s="13">
         <v>8</v>
       </c>
       <c r="B15" t="s">
@@ -5311,7 +5450,7 @@
       <c r="D16" t="s">
         <v>453</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>502</v>
       </c>
       <c r="F16" t="s">

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="語彙1" sheetId="1" r:id="rId1"/>
     <sheet name="練習1" sheetId="3" r:id="rId2"/>
     <sheet name="語彙2" sheetId="2" r:id="rId3"/>
     <sheet name="練習2" sheetId="4" r:id="rId4"/>
+    <sheet name="語彙3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">語彙1!$A$1:$D$1</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="630">
   <si>
     <t>No</t>
   </si>
@@ -1838,6 +1839,105 @@
   <si>
     <t>塩をつまむ
 鼻をつまむ</t>
+  </si>
+  <si>
+    <t>何もかも</t>
+  </si>
+  <si>
+    <t>なにもかも</t>
+  </si>
+  <si>
+    <t>Cái gì cũng</t>
+  </si>
+  <si>
+    <t>何もかも造りが大きい。</t>
+  </si>
+  <si>
+    <t>天井</t>
+  </si>
+  <si>
+    <t>てんじょう</t>
+  </si>
+  <si>
+    <t>Trần nhà</t>
+  </si>
+  <si>
+    <t>画家</t>
+  </si>
+  <si>
+    <t>がか</t>
+  </si>
+  <si>
+    <t>Họa sỹ</t>
+  </si>
+  <si>
+    <t>支度</t>
+  </si>
+  <si>
+    <t>したく</t>
+  </si>
+  <si>
+    <t>Chuẩn bị</t>
+  </si>
+  <si>
+    <t>御待ち遠様</t>
+  </si>
+  <si>
+    <t>おまちどおさま</t>
+  </si>
+  <si>
+    <t>Đã để đợi lâu rồi.</t>
+  </si>
+  <si>
+    <t>旗竿地</t>
+  </si>
+  <si>
+    <t>はたざおち</t>
+  </si>
+  <si>
+    <t>Khu đất hình cột cờ</t>
+  </si>
+  <si>
+    <t>家主</t>
+  </si>
+  <si>
+    <t>やぬし</t>
+  </si>
+  <si>
+    <t>Chủ nhà</t>
+  </si>
+  <si>
+    <t>手放す</t>
+  </si>
+  <si>
+    <t>てばなす</t>
+  </si>
+  <si>
+    <t>Rời bỏ, bán</t>
+  </si>
+  <si>
+    <t>咳払い</t>
+  </si>
+  <si>
+    <t>せきばらい</t>
+  </si>
+  <si>
+    <t>Hắng giọng</t>
+  </si>
+  <si>
+    <t>相撲取り</t>
+  </si>
+  <si>
+    <t>すもうとり</t>
+  </si>
+  <si>
+    <t>Sumo, đô vật</t>
+  </si>
+  <si>
+    <t>マスコット</t>
+  </si>
+  <si>
+    <t>Linh vật</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1975,15 +2075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2008,9 +2099,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3893,10 +3990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E84" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3921,7 +4018,7 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5">
@@ -3936,1366 +4033,1494 @@
       <c r="D2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="19">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="19">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="19">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="19">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="19">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="19">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="19">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="19">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="19">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="19">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="19">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="19">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="19">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="19">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="19">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="19">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="19">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="19">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="19">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="19">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="19">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="15" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="19">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="15" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="19">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="19">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="19">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="15" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="19">
+      <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="15" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="19">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="19">
+      <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="15" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="19">
+      <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="15" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="19">
+      <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="15" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="19">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="15" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="19">
+      <c r="A55" s="16">
         <v>54</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="15" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="19">
+      <c r="A56" s="16">
         <v>55</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="15" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="19">
+      <c r="A57" s="16">
         <v>56</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="15" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="19">
+      <c r="A58" s="16">
         <v>57</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="15" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="19">
+      <c r="A59" s="16">
         <v>58</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="19">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="15" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="19">
+      <c r="A61" s="16">
         <v>60</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="15" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="19">
+      <c r="A62" s="16">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="15" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="19">
+      <c r="A63" s="16">
         <v>62</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="15" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="19">
+      <c r="A64" s="16">
         <v>63</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="15" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="19">
+      <c r="A65" s="16">
         <v>64</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="15" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="19">
+      <c r="A66" s="16">
         <v>65</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="19">
+      <c r="A67" s="16">
         <v>66</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="15" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="19">
+      <c r="A68" s="16">
         <v>67</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="15" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="19">
+      <c r="A69" s="16">
         <v>68</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="19">
+      <c r="A70" s="16">
         <v>69</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21" t="s">
+      <c r="C70" s="17"/>
+      <c r="D70" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="15" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="19">
+      <c r="A71" s="16">
         <v>70</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="19">
+      <c r="A72" s="16">
         <v>71</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="19">
+      <c r="A73" s="16">
         <v>72</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="15" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="19">
+      <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="15" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="19">
+      <c r="A75" s="16">
         <v>74</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21" t="s">
+      <c r="C75" s="17"/>
+      <c r="D75" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="15" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="19">
+      <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21" t="s">
+      <c r="C76" s="17"/>
+      <c r="D76" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="15" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="19">
+      <c r="A77" s="16">
         <v>76</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="15" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="13">
+      <c r="A78" s="16">
         <v>77</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="E78" s="25"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="13">
+      <c r="A79" s="16">
         <v>78</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15" t="s">
+      <c r="C79" s="17"/>
+      <c r="D79" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="E79" s="25"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="13">
+      <c r="A80" s="16">
         <v>79</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="17"/>
+      <c r="D80" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="E80" s="25"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="13">
+      <c r="A81" s="16">
         <v>80</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="E81" s="25"/>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="13">
+      <c r="A82" s="16">
         <v>81</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="E82" s="25"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="13">
+      <c r="A83" s="16">
         <v>82</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="E83" s="25"/>
+      <c r="E83" s="15"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="13">
+      <c r="A84" s="16">
         <v>83</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15" t="s">
+      <c r="C84" s="17"/>
+      <c r="D84" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="E84" s="25"/>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="13">
+      <c r="A85" s="16">
         <v>84</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="E85" s="25"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="13">
+      <c r="A86" s="16">
         <v>85</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="E86" s="25"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="13">
+      <c r="A87" s="16">
         <v>86</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="17"/>
+      <c r="D87" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="E87" s="25"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="13">
+      <c r="A88" s="16">
         <v>87</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15" t="s">
+      <c r="C88" s="17"/>
+      <c r="D88" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="E88" s="25"/>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="13">
+      <c r="A89" s="16">
         <v>88</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="E89" s="25"/>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="13">
+      <c r="A90" s="16">
         <v>89</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="17"/>
+      <c r="D90" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="E90" s="25"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="13">
+      <c r="A91" s="16">
         <v>90</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15" t="s">
+      <c r="C91" s="17"/>
+      <c r="D91" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="E91" s="15" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="17" customFormat="1" ht="27">
-      <c r="A92" s="13">
+    <row r="92" spans="1:5" s="14" customFormat="1" ht="27">
+      <c r="A92" s="16">
         <v>91</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15" t="s">
+      <c r="C92" s="17"/>
+      <c r="D92" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="22" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="13">
+      <c r="A93" s="16">
         <v>92</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="25"/>
+      <c r="B93" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="23">
+        <v>93</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="23">
+        <v>94</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="E95" s="26"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="23">
+        <v>95</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="23">
+        <v>96</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E97" s="26"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="23">
+        <v>97</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E98" s="26"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="23">
+        <v>98</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E99" s="26"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="23">
+        <v>99</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="E100" s="26"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="23">
+        <v>100</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="E101" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5307,7 +5532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5461,4 +5688,2791 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E392"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="5"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="5"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="5"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="5"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="15"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="5"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="5"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="5"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="5"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="5"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="5"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="5"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="5"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="5"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="5"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="15"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="5"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="15"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="5"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="15"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="5"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="5"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="15"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="5"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="5"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="15"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="5"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="5"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="15"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="5"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="5"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="15"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="5"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="5"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="15"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="5"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="5"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="15"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="5"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="15"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="5"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="15"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="5"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="15"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="5"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="15"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="5"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="5"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="15"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="5"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="15"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="5"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="15"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="5"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="15"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="5"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="15"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="5"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="15"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="5"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="15"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="5"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="15"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="5"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="15"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="5"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="15"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="5"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="15"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="5"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="15"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="5"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="15"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="5"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="5"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="5"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="15"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="5"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="15"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="5"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="15"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="5"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="15"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="5"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="15"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="5"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="15"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="5"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="15"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="5"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="15"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="5"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="15"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="5"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="15"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="5"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="15"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="5"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="15"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="5"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="5"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="15"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="5"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="15"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="5"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="15"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="5"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="15"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="5"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="15"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="5"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="15"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="5"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="5"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="15"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="5"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="15"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="5"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="15"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="5"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="15"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="5"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="15"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="5"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="15"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="5"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="5"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="15"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="5"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="15"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="5"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="15"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="5"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="15"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="5"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="15"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="5"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="15"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="5"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="15"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="5"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="15"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="5"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="15"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="5"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="15"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="5"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="15"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="5"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="15"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="5"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="5"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="15"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="5"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="15"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="5"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="15"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="5"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="15"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="5"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="15"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="5"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="15"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="5"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="15"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="5"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="5"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="15"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="5"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="15"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="5"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="15"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="5"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="15"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="5"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="15"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="5"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="15"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="5"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="15"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="5"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="15"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="5"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="15"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="5"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="15"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="5"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="15"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="5"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="15"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="5"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="15"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="5"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="15"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="5"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="15"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="5"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="15"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="5"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="15"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="5"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="15"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="5"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="15"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="5"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="15"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="5"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="15"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="5"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="15"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="5"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="15"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="5"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="15"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="5"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="15"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="5"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="15"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="5"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="15"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="5"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="15"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="5"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="15"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="5"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="15"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="5"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="15"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="5"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="15"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="5"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="15"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="5"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="15"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="5"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="15"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="5"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="15"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="5"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="15"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="5"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="15"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="5"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="15"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="5"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="15"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="5"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="15"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="5"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="15"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="5"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="15"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="5"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="15"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="5"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="15"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="5"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="15"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="5"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="15"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="5"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="15"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="5"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="15"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="5"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="15"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="5"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="15"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="5"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="15"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="5"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="15"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="5"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="15"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="5"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="15"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="5"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="15"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="5"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="15"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="5"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="15"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="5"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="15"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="5"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="15"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="5"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="15"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="5"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="15"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="5"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="15"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="5"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="15"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="5"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="15"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="5"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="15"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="5"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="15"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="5"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="15"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="5"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="15"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="5"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="15"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="5"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="15"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="5"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="15"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="5"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="15"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="5"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="15"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="5"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="15"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="5"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="15"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="5"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="15"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="5"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="15"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="5"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="15"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="5"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="15"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="5"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="15"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="5"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="15"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="5"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="15"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="5"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="15"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="5"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="15"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="5"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="15"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="5"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="15"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="5"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="15"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="5"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="15"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="5"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="15"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="5"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="15"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="5"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="15"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="5"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="15"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="5"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="15"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="5"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="15"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="5"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="15"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="5"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="15"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="5"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="15"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="5"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="15"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="5"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="15"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="5"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="15"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="5"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="15"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="5"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="8"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="15"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="5"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="15"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="5"/>
+      <c r="B296" s="8"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="15"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="5"/>
+      <c r="B297" s="8"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="15"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="5"/>
+      <c r="B298" s="8"/>
+      <c r="C298" s="8"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="15"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="5"/>
+      <c r="B299" s="8"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="15"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="5"/>
+      <c r="B300" s="8"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="15"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="5"/>
+      <c r="B301" s="8"/>
+      <c r="C301" s="8"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="15"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="5"/>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="15"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="5"/>
+      <c r="B303" s="8"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="15"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="5"/>
+      <c r="B304" s="8"/>
+      <c r="C304" s="8"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="15"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="5"/>
+      <c r="B305" s="8"/>
+      <c r="C305" s="8"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="15"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="5"/>
+      <c r="B306" s="8"/>
+      <c r="C306" s="8"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="15"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="5"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="15"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="5"/>
+      <c r="B308" s="8"/>
+      <c r="C308" s="8"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="15"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="5"/>
+      <c r="B309" s="8"/>
+      <c r="C309" s="8"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="15"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="5"/>
+      <c r="B310" s="8"/>
+      <c r="C310" s="8"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="15"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="5"/>
+      <c r="B311" s="8"/>
+      <c r="C311" s="8"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="15"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="5"/>
+      <c r="B312" s="8"/>
+      <c r="C312" s="8"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="15"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="5"/>
+      <c r="B313" s="8"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="15"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="5"/>
+      <c r="B314" s="8"/>
+      <c r="C314" s="8"/>
+      <c r="D314" s="2"/>
+      <c r="E314" s="15"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="5"/>
+      <c r="B315" s="8"/>
+      <c r="C315" s="8"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="15"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="5"/>
+      <c r="B316" s="8"/>
+      <c r="C316" s="8"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="15"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="5"/>
+      <c r="B317" s="8"/>
+      <c r="C317" s="8"/>
+      <c r="D317" s="2"/>
+      <c r="E317" s="15"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="5"/>
+      <c r="B318" s="8"/>
+      <c r="C318" s="8"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="15"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="5"/>
+      <c r="B319" s="8"/>
+      <c r="C319" s="8"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="15"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="5"/>
+      <c r="B320" s="8"/>
+      <c r="C320" s="8"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="15"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="5"/>
+      <c r="B321" s="8"/>
+      <c r="C321" s="8"/>
+      <c r="D321" s="2"/>
+      <c r="E321" s="15"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="5"/>
+      <c r="B322" s="8"/>
+      <c r="C322" s="8"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="15"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="5"/>
+      <c r="B323" s="8"/>
+      <c r="C323" s="8"/>
+      <c r="D323" s="2"/>
+      <c r="E323" s="15"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="5"/>
+      <c r="B324" s="8"/>
+      <c r="C324" s="8"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="15"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="5"/>
+      <c r="B325" s="8"/>
+      <c r="C325" s="8"/>
+      <c r="D325" s="2"/>
+      <c r="E325" s="15"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="5"/>
+      <c r="B326" s="8"/>
+      <c r="C326" s="8"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="15"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="5"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="8"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="15"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="5"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="8"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="15"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="5"/>
+      <c r="B329" s="8"/>
+      <c r="C329" s="8"/>
+      <c r="D329" s="2"/>
+      <c r="E329" s="15"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="5"/>
+      <c r="B330" s="8"/>
+      <c r="C330" s="8"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="15"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="5"/>
+      <c r="B331" s="8"/>
+      <c r="C331" s="8"/>
+      <c r="D331" s="2"/>
+      <c r="E331" s="15"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="5"/>
+      <c r="B332" s="8"/>
+      <c r="C332" s="8"/>
+      <c r="D332" s="2"/>
+      <c r="E332" s="15"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="5"/>
+      <c r="B333" s="8"/>
+      <c r="C333" s="8"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="15"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="5"/>
+      <c r="B334" s="8"/>
+      <c r="C334" s="8"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="15"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="5"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="15"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="5"/>
+      <c r="B336" s="8"/>
+      <c r="C336" s="8"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="15"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="5"/>
+      <c r="B337" s="8"/>
+      <c r="C337" s="8"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="15"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="5"/>
+      <c r="B338" s="8"/>
+      <c r="C338" s="8"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="15"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="5"/>
+      <c r="B339" s="8"/>
+      <c r="C339" s="8"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="15"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="5"/>
+      <c r="B340" s="8"/>
+      <c r="C340" s="8"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="15"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="5"/>
+      <c r="B341" s="8"/>
+      <c r="C341" s="8"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="15"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="5"/>
+      <c r="B342" s="8"/>
+      <c r="C342" s="8"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="15"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="5"/>
+      <c r="B343" s="8"/>
+      <c r="C343" s="8"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="15"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="5"/>
+      <c r="B344" s="8"/>
+      <c r="C344" s="8"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="15"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="5"/>
+      <c r="B345" s="8"/>
+      <c r="C345" s="8"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="15"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="5"/>
+      <c r="B346" s="8"/>
+      <c r="C346" s="8"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="15"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="5"/>
+      <c r="B347" s="8"/>
+      <c r="C347" s="8"/>
+      <c r="D347" s="2"/>
+      <c r="E347" s="15"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="5"/>
+      <c r="B348" s="8"/>
+      <c r="C348" s="8"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="15"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="5"/>
+      <c r="B349" s="8"/>
+      <c r="C349" s="8"/>
+      <c r="D349" s="2"/>
+      <c r="E349" s="15"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="5"/>
+      <c r="B350" s="8"/>
+      <c r="C350" s="8"/>
+      <c r="D350" s="2"/>
+      <c r="E350" s="15"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="5"/>
+      <c r="B351" s="8"/>
+      <c r="C351" s="8"/>
+      <c r="D351" s="2"/>
+      <c r="E351" s="15"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="5"/>
+      <c r="B352" s="8"/>
+      <c r="C352" s="8"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="15"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="5"/>
+      <c r="B353" s="8"/>
+      <c r="C353" s="8"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="15"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="5"/>
+      <c r="B354" s="8"/>
+      <c r="C354" s="8"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="15"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="5"/>
+      <c r="B355" s="8"/>
+      <c r="C355" s="8"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="15"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="5"/>
+      <c r="B356" s="8"/>
+      <c r="C356" s="8"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="15"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="5"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="8"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="15"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="5"/>
+      <c r="B358" s="8"/>
+      <c r="C358" s="8"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="15"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="5"/>
+      <c r="B359" s="8"/>
+      <c r="C359" s="8"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="15"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="5"/>
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="15"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="5"/>
+      <c r="B361" s="8"/>
+      <c r="C361" s="8"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="15"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="5"/>
+      <c r="B362" s="8"/>
+      <c r="C362" s="8"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="15"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="5"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="8"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="15"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="5"/>
+      <c r="B364" s="8"/>
+      <c r="C364" s="8"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="15"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="5"/>
+      <c r="B365" s="8"/>
+      <c r="C365" s="8"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="15"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="5"/>
+      <c r="B366" s="8"/>
+      <c r="C366" s="8"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="15"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="5"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="8"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="15"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="5"/>
+      <c r="B368" s="8"/>
+      <c r="C368" s="8"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="15"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="5"/>
+      <c r="B369" s="8"/>
+      <c r="C369" s="8"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="15"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="5"/>
+      <c r="B370" s="8"/>
+      <c r="C370" s="8"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="15"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="5"/>
+      <c r="B371" s="8"/>
+      <c r="C371" s="8"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="15"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="5"/>
+      <c r="B372" s="8"/>
+      <c r="C372" s="8"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="15"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="5"/>
+      <c r="B373" s="8"/>
+      <c r="C373" s="8"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="15"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="5"/>
+      <c r="B374" s="8"/>
+      <c r="C374" s="8"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="15"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="5"/>
+      <c r="B375" s="8"/>
+      <c r="C375" s="8"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="15"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="5"/>
+      <c r="B376" s="8"/>
+      <c r="C376" s="8"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="15"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="5"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="8"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="15"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="5"/>
+      <c r="B378" s="8"/>
+      <c r="C378" s="8"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="15"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="5"/>
+      <c r="B379" s="8"/>
+      <c r="C379" s="8"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="15"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="5"/>
+      <c r="B380" s="8"/>
+      <c r="C380" s="8"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="15"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="5"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
+      <c r="D381" s="2"/>
+      <c r="E381" s="15"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="5"/>
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="15"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="5"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="8"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="15"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="5"/>
+      <c r="B384" s="8"/>
+      <c r="C384" s="8"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="15"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="5"/>
+      <c r="B385" s="8"/>
+      <c r="C385" s="8"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="15"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="5"/>
+      <c r="B386" s="8"/>
+      <c r="C386" s="8"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="15"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="5"/>
+      <c r="B387" s="8"/>
+      <c r="C387" s="8"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="15"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="5"/>
+      <c r="B388" s="8"/>
+      <c r="C388" s="8"/>
+      <c r="D388" s="2"/>
+      <c r="E388" s="15"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="5"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="8"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="15"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="5"/>
+      <c r="B390" s="8"/>
+      <c r="C390" s="8"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="15"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="5"/>
+      <c r="B391" s="8"/>
+      <c r="C391" s="8"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="15"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="5"/>
+      <c r="B392" s="8"/>
+      <c r="C392" s="8"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="685">
   <si>
     <t>No</t>
   </si>
@@ -1938,6 +1938,172 @@
   </si>
   <si>
     <t>Linh vật</t>
+  </si>
+  <si>
+    <t>~ thì không nói làm gì</t>
+  </si>
+  <si>
+    <t>～ならいざしらず</t>
+  </si>
+  <si>
+    <t>花を摘む</t>
+  </si>
+  <si>
+    <t>はなをつむ</t>
+  </si>
+  <si>
+    <t>Ngắt hoa</t>
+  </si>
+  <si>
+    <t>芽</t>
+  </si>
+  <si>
+    <t>め</t>
+  </si>
+  <si>
+    <t>Mầm mống</t>
+  </si>
+  <si>
+    <t>才能の芽を摘む</t>
+  </si>
+  <si>
+    <t>さいのうのめをつむ</t>
+  </si>
+  <si>
+    <t>Vùi dập tài năng</t>
+  </si>
+  <si>
+    <t>さする</t>
+  </si>
+  <si>
+    <t>Xoa bóp</t>
+  </si>
+  <si>
+    <t>足をさする</t>
+  </si>
+  <si>
+    <t>いじる</t>
+  </si>
+  <si>
+    <t>庭をいじる</t>
+  </si>
+  <si>
+    <t>にわをいじる</t>
+  </si>
+  <si>
+    <t>Làm vườn</t>
+  </si>
+  <si>
+    <t>Xoa, sờ, vuốt ve</t>
+  </si>
+  <si>
+    <t>髪の毛をいじる</t>
+  </si>
+  <si>
+    <t>はたく</t>
+  </si>
+  <si>
+    <t>Phủi bụi</t>
+  </si>
+  <si>
+    <t>家具の誇りをはたく</t>
+  </si>
+  <si>
+    <t>すくう</t>
+  </si>
+  <si>
+    <t>Múc</t>
+  </si>
+  <si>
+    <t>水をすくう</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>つえ</t>
+  </si>
+  <si>
+    <t>Cái gậy</t>
+  </si>
+  <si>
+    <t>つえをつく</t>
+  </si>
+  <si>
+    <t>Chống gậy</t>
+  </si>
+  <si>
+    <t>杖を突く</t>
+  </si>
+  <si>
+    <t>バスタオル</t>
+  </si>
+  <si>
+    <t>Khăn tắm</t>
+  </si>
+  <si>
+    <t>くるむ</t>
+  </si>
+  <si>
+    <t>Gói, quấn, bao bọc</t>
+  </si>
+  <si>
+    <t>赤ちゃんをバスタオルでくるむ</t>
+  </si>
+  <si>
+    <t>丸める</t>
+  </si>
+  <si>
+    <t>まるめる</t>
+  </si>
+  <si>
+    <t>Vo, cuộn tròn, uốn</t>
+  </si>
+  <si>
+    <t>紙を丸める
+体を丸める</t>
+  </si>
+  <si>
+    <t>体を丸める</t>
+  </si>
+  <si>
+    <t>からだをまるめる</t>
+  </si>
+  <si>
+    <t>Cuộn người</t>
+  </si>
+  <si>
+    <t>擦る</t>
+  </si>
+  <si>
+    <t>する</t>
+  </si>
+  <si>
+    <t>マッチを擦る</t>
+  </si>
+  <si>
+    <t>まっちをする</t>
+  </si>
+  <si>
+    <t>Quẹt, ma sát</t>
+  </si>
+  <si>
+    <t>Quẹt diêm</t>
+  </si>
+  <si>
+    <t>さす</t>
+  </si>
+  <si>
+    <t>Chỉ chỏ</t>
+  </si>
+  <si>
+    <t>指をさす</t>
+  </si>
+  <si>
+    <t>ゆびをさす</t>
+  </si>
+  <si>
+    <t>Chỉ ngón tay</t>
   </si>
 </sst>
 </file>
@@ -3992,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView topLeftCell="A85" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5694,8 +5860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5703,7 +5872,7 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5750,136 +5919,284 @@
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>631</v>
+      </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>634</v>
+      </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>641</v>
+      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>644</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>650</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>653</v>
+      </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>660</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>662</v>
+      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>663</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>664</v>
+      </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="15"/>
+      <c r="D16" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>678</v>
+      </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>679</v>
+      </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>680</v>
+      </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>681</v>
+      </c>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>684</v>
+      </c>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">

--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="734">
   <si>
     <t>No</t>
   </si>
@@ -2104,6 +2104,153 @@
   </si>
   <si>
     <t>Chỉ ngón tay</t>
+  </si>
+  <si>
+    <t>おととし</t>
+  </si>
+  <si>
+    <t>Một năm trước</t>
+  </si>
+  <si>
+    <t>八王子市</t>
+  </si>
+  <si>
+    <t>はちおうじし</t>
+  </si>
+  <si>
+    <t>Thành phố Hachioji</t>
+  </si>
+  <si>
+    <t>飼い犬</t>
+  </si>
+  <si>
+    <t>かいいぬ</t>
+  </si>
+  <si>
+    <t>Chó nuôi</t>
+  </si>
+  <si>
+    <t>孫</t>
+  </si>
+  <si>
+    <t>まご</t>
+  </si>
+  <si>
+    <t>Cháu</t>
+  </si>
+  <si>
+    <t>書類送検（する）</t>
+  </si>
+  <si>
+    <t>しょるいそうけんする</t>
+  </si>
+  <si>
+    <t>捜査する</t>
+  </si>
+  <si>
+    <t>そうさする</t>
+  </si>
+  <si>
+    <t>Điều tra</t>
+  </si>
+  <si>
+    <t>嫌疑</t>
+  </si>
+  <si>
+    <t>けんぎ</t>
+  </si>
+  <si>
+    <t>Nghi ngờ</t>
+  </si>
+  <si>
+    <t>捜査機関</t>
+  </si>
+  <si>
+    <t>そうさきかん</t>
+  </si>
+  <si>
+    <t>Cơ quan điều tra</t>
+  </si>
+  <si>
+    <t>公訴</t>
+  </si>
+  <si>
+    <t>こうそ</t>
+  </si>
+  <si>
+    <t>Buộc tội</t>
+  </si>
+  <si>
+    <t>提起</t>
+  </si>
+  <si>
+    <t>ていき</t>
+  </si>
+  <si>
+    <t>Đưa ra</t>
+  </si>
+  <si>
+    <t>被疑者</t>
+  </si>
+  <si>
+    <t>ひぎしゃ</t>
+  </si>
+  <si>
+    <t>Kẻ tình nghi</t>
+  </si>
+  <si>
+    <t>過失致死</t>
+  </si>
+  <si>
+    <t>かしつちし</t>
+  </si>
+  <si>
+    <t>Ngộ sát</t>
+  </si>
+  <si>
+    <t>Gửi hồ sơ khởi tố</t>
+  </si>
+  <si>
+    <t>放し飼い</t>
+  </si>
+  <si>
+    <t>はなしがい</t>
+  </si>
+  <si>
+    <t>家畜</t>
+  </si>
+  <si>
+    <t>かちく</t>
+  </si>
+  <si>
+    <t>Gia súc, vật nuôi</t>
+  </si>
+  <si>
+    <t>繋ぐ</t>
+  </si>
+  <si>
+    <t>つなぐ</t>
+  </si>
+  <si>
+    <t>Trói, buộc</t>
+  </si>
+  <si>
+    <t>放任する</t>
+  </si>
+  <si>
+    <t>ほうにんする</t>
+  </si>
+  <si>
+    <t>Không can thiệp, cho muốn làm gì thì làm</t>
+  </si>
+  <si>
+    <t>干渉する</t>
+  </si>
+  <si>
+    <t>かんしょうする</t>
+  </si>
+  <si>
+    <t>Can thiệp, xen vào</t>
   </si>
 </sst>
 </file>
@@ -5860,18 +6007,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6200,122 +6347,254 @@
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>685</v>
+      </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>686</v>
+      </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>695</v>
+      </c>
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>719</v>
+      </c>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>700</v>
+      </c>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>706</v>
+      </c>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>709</v>
+      </c>
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>712</v>
+      </c>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>718</v>
+      </c>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>721</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>724</v>
+      </c>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>727</v>
+      </c>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>730</v>
+      </c>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5">
@@ -8791,5 +9070,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Goi.xlsx
+++ b/Goi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="741">
   <si>
     <t>No</t>
   </si>
@@ -2251,6 +2251,27 @@
   </si>
   <si>
     <t>Can thiệp, xen vào</t>
+  </si>
+  <si>
+    <t>容疑</t>
+  </si>
+  <si>
+    <t>ようぎ</t>
+  </si>
+  <si>
+    <t>Nghi ngờ, tội danh</t>
+  </si>
+  <si>
+    <t>容疑を認めている</t>
+  </si>
+  <si>
+    <t>放し飼いにする</t>
+  </si>
+  <si>
+    <t>容疑者</t>
+  </si>
+  <si>
+    <t>ようぎしゃ</t>
   </si>
 </sst>
 </file>
@@ -6007,11 +6028,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6535,7 +6556,9 @@
         <v>721</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5">
@@ -6598,17 +6621,35 @@
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="15"/>
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5">
